--- a/Kundalik daftari.xlsx
+++ b/Kundalik daftari.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="67">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Dushanba</t>
   </si>
   <si>
-    <t xml:space="preserve">15.09.2025</t>
+    <t xml:space="preserve">22.09.2025</t>
   </si>
   <si>
     <t xml:space="preserve">Kelajak soati</t>
@@ -68,31 +68,26 @@
     <t xml:space="preserve">O‘zbek tili</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
     <t xml:space="preserve">matn tuzish</t>
   </si>
   <si>
     <t xml:space="preserve">Fizika</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§4 с.16, упр.3 с.17</t>
+    <t xml:space="preserve">§6 с.21-23, упр. 5 с.24
+</t>
   </si>
   <si>
     <t xml:space="preserve">Algebra</t>
   </si>
   <si>
-    <t xml:space="preserve">№ 36,37</t>
+    <t xml:space="preserve">№ 63,64</t>
   </si>
   <si>
     <t xml:space="preserve">Inf va IKT</t>
   </si>
   <si>
-    <t xml:space="preserve">10-15-bet</t>
+    <t xml:space="preserve">24-27-bet</t>
   </si>
   <si>
     <t xml:space="preserve">ona tili</t>
@@ -101,19 +96,16 @@
     <t xml:space="preserve">Seshanba</t>
   </si>
   <si>
-    <t xml:space="preserve">16.09.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">повторение</t>
+    <t xml:space="preserve">23.09.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№ 67,68</t>
   </si>
   <si>
     <t xml:space="preserve">Kimyo</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-23-bet</t>
+    <t xml:space="preserve">28-32-bet</t>
   </si>
   <si>
     <t xml:space="preserve">Texnologiya</t>
@@ -122,111 +114,104 @@
     <t xml:space="preserve">O'zb tarixi</t>
   </si>
   <si>
+    <t xml:space="preserve">Jismoniy madaniyat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 marta depsinib sakrash mashqi qilish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chorshanba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.09.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingliz tili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WB p.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarbiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mavzuni o‘qish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geometriya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adabiyot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chizmachilik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5-чертёж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payshanba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.09.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaxon tarixi</t>
+  </si>
+  <si>
     <t xml:space="preserve">ответы на вопросы</t>
   </si>
   <si>
-    <t xml:space="preserve">Jismoniy madaniyat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 marta sakrash mashqi qilish.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chorshanba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.09.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingliz tili</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WB p.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maqollar haqida izoh yozish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarbiya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mavzuni o‘qish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geometriya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adabiyot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chizmachilik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.
-2.5-чертёж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payshanba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.09.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaxon tarixi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Huquq</t>
   </si>
   <si>
     <t xml:space="preserve">Biologiya</t>
   </si>
   <si>
-    <t xml:space="preserve">4 &amp; стр 14.отаетить на вопросы.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ma'lumot to'plash</t>
+    <t xml:space="preserve">6&amp;.Стр.19.ответить на вопросы.</t>
   </si>
   <si>
     <t xml:space="preserve">Juma</t>
   </si>
   <si>
-    <t xml:space="preserve">19.09.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 &amp;.стр 17,ответить на вопросы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 marta yugurib kelib sakrash.</t>
+    <t xml:space="preserve">26.09.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7&amp; Стр.21.ответить на вопросы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennis to‘pini 5 marta uloqtirish.</t>
   </si>
   <si>
     <t xml:space="preserve">Geografiya</t>
   </si>
   <si>
-    <t xml:space="preserve">9-10</t>
+    <t xml:space="preserve">прочитать тему и перессказ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">Shanba</t>
   </si>
   <si>
-    <t xml:space="preserve">20.09.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">№ 56,57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§5 с.18-19, упр.4 с.20
+    <t xml:space="preserve">27.09.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№ 73,74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§7 с.25-27, упр.6 №1,2 с.27
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reading</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yakshanba</t>
   </si>
   <si>
-    <t xml:space="preserve">21.09.2025</t>
+    <t xml:space="preserve">28.09.2025</t>
   </si>
   <si>
     <t xml:space="preserve">Dam olish kuni</t>
@@ -452,10 +437,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -463,13 +448,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -477,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -491,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -505,10 +490,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>0</v>
@@ -517,10 +502,10 @@
     <row r="16"/>
     <row r="17">
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -542,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -556,10 +541,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>0</v>
@@ -570,13 +555,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -584,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>0</v>
@@ -598,13 +583,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -612,22 +597,22 @@
         <v>6</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25"/>
     <row r="26">
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -649,13 +634,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
@@ -669,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -677,13 +662,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
@@ -691,13 +676,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>0</v>
@@ -719,22 +704,22 @@
         <v>6</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34"/>
     <row r="35">
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
@@ -756,13 +741,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38">
@@ -770,10 +755,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>0</v>
@@ -784,13 +769,13 @@
         <v>3</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
@@ -798,13 +783,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41">
@@ -815,19 +800,19 @@
         <v>17</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42"/>
     <row r="43">
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44">
@@ -849,13 +834,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -863,13 +848,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="47">
@@ -877,13 +862,13 @@
         <v>3</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
@@ -891,13 +876,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49">
@@ -905,13 +890,13 @@
         <v>5</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
@@ -919,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>0</v>
@@ -931,10 +916,10 @@
     <row r="51"/>
     <row r="52">
       <c r="B52" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53">
@@ -956,13 +941,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55">
@@ -970,13 +955,13 @@
         <v>2</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56">
@@ -984,13 +969,13 @@
         <v>3</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
@@ -998,13 +983,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +997,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>0</v>
@@ -1026,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>0</v>
@@ -1038,10 +1023,10 @@
     <row r="60"/>
     <row r="61">
       <c r="B61" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62">
@@ -1061,7 +1046,7 @@
     <row r="63">
       <c r="A63" s="11"/>
       <c r="B63" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>0</v>
